--- a/Test/MultiPSO/No_exploitation/ALLCONError_50.xlsx
+++ b/Test/MultiPSO/No_exploitation/ALLCONError_50.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.01670205649380153</v>
+        <v>0.01212020097912963</v>
       </c>
       <c r="B1" t="n">
-        <v>0.007806494461328977</v>
+        <v>0.005991206673136507</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0129786496517954</v>
+        <v>0.01908704917238287</v>
       </c>
       <c r="D1" t="n">
-        <v>0.006006165774396442</v>
+        <v>0.004657353162449605</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01414117554291905</v>
+        <v>0.009077113791692595</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01666978731528838</v>
+        <v>0.01664947214010898</v>
       </c>
       <c r="G1" t="n">
-        <v>0.03240581752751232</v>
+        <v>0.007005884357071427</v>
       </c>
       <c r="H1" t="n">
-        <v>0.00805825043745762</v>
+        <v>0.004591224232665788</v>
       </c>
       <c r="I1" t="n">
-        <v>0.02161930163486367</v>
+        <v>0.01613955994504164</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03988985941228002</v>
+        <v>0.04477037583662054</v>
       </c>
     </row>
   </sheetData>
